--- a/RUDN/Correlations/deep.Corr_in_FRO.Northern Europe.xlsx
+++ b/RUDN/Correlations/deep.Corr_in_FRO.Northern Europe.xlsx
@@ -13,10 +13,86 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>IT.CEL.SETS.P2:FRO</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:FRO</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:FRO</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZS:FRO</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:FRO</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL.IN.ZS:FRO</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:FRO</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:FRO:cor-value</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:FRO:p-value</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:FRO:cor-value</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:FRO:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:FRO:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:FRO:p-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZS:FRO:cor-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZS:FRO:p-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:FRO:cor-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:FRO:p-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL.IN.ZS:FRO:cor-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL.IN.ZS:FRO:p-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:FRO:cor-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:FRO:p-value</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +116,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +434,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>-0.8613814249770161</v>
+      </c>
+      <c r="D2">
+        <v>-0.5954580728849974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>7.547309238520975e-05</v>
+      </c>
+      <c r="D3">
+        <v>0.02465694679997899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.71130309603345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.004337006833958361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.7271069665154862</v>
+      </c>
+      <c r="C6">
+        <v>-0.581980439319155</v>
+      </c>
+      <c r="D6">
+        <v>0.9711798555500513</v>
+      </c>
+      <c r="E6">
+        <v>-0.9855137954589359</v>
+      </c>
+      <c r="F6">
+        <v>-0.9660218032712612</v>
+      </c>
+      <c r="G6">
+        <v>0.9855137954589361</v>
+      </c>
+      <c r="H6">
+        <v>0.9913170073994521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.003213566535749703</v>
+      </c>
+      <c r="C7">
+        <v>0.02900402760677713</v>
+      </c>
+      <c r="D7">
+        <v>7.774906289610519e-09</v>
+      </c>
+      <c r="E7">
+        <v>1.293301783599355e-10</v>
+      </c>
+      <c r="F7">
+        <v>2.064714978944941e-08</v>
+      </c>
+      <c r="G7">
+        <v>1.293301783599237e-10</v>
+      </c>
+      <c r="H7">
+        <v>6.073151442444577e-12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>-0.8204404540470847</v>
+      </c>
+      <c r="C8">
+        <v>0.6939261672389979</v>
+      </c>
+      <c r="D8">
+        <v>-0.9679441918419965</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>-0.9992462499151136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.0003247116103360378</v>
+      </c>
+      <c r="C9">
+        <v>0.00590512655070753</v>
+      </c>
+      <c r="D9">
+        <v>1.461877675340071e-08</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.643350021905412e-18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>-0.8596166854783848</v>
+      </c>
+      <c r="C10">
+        <v>0.7456859599783782</v>
+      </c>
+      <c r="D10">
+        <v>-0.9554411796197175</v>
+      </c>
+      <c r="E10">
+        <v>0.9958397980392846</v>
+      </c>
+      <c r="G10">
+        <v>-0.9958397980392846</v>
+      </c>
+      <c r="H10">
+        <v>-0.991619779876314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>8.109979902870733e-05</v>
+      </c>
+      <c r="C11">
+        <v>0.002200421995516808</v>
+      </c>
+      <c r="D11">
+        <v>1.026265289802996e-07</v>
+      </c>
+      <c r="E11">
+        <v>7.418288231911966e-14</v>
+      </c>
+      <c r="G11">
+        <v>7.418288231911966e-14</v>
+      </c>
+      <c r="H11">
+        <v>4.911484757109339e-12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.8204404540470849</v>
+      </c>
+      <c r="C12">
+        <v>-0.6939261672389978</v>
+      </c>
+      <c r="D12">
+        <v>0.9679441918419963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.0003247116103360354</v>
+      </c>
+      <c r="C13">
+        <v>0.005905126550707548</v>
+      </c>
+      <c r="D13">
+        <v>1.461877675340129e-08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.8007780246971822</v>
+      </c>
+      <c r="C14">
+        <v>-0.670273967604772</v>
+      </c>
+      <c r="D14">
+        <v>0.9715283921771394</v>
+      </c>
+      <c r="G14">
+        <v>0.9992462499151133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.0005787867735360839</v>
+      </c>
+      <c r="C15">
+        <v>0.008711870888129372</v>
+      </c>
+      <c r="D15">
+        <v>7.232996359050861e-09</v>
+      </c>
+      <c r="G15">
+        <v>2.643350021910082e-18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>